--- a/datos_dropcontrol/2025-08-04.xlsx
+++ b/datos_dropcontrol/2025-08-04.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45873.33357223173</v>
+        <v>45873.33357223379</v>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
@@ -522,6 +522,42 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>08:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45873.37521892216</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="E3" t="n">
+        <v>87.52</v>
+      </c>
+      <c r="F3" t="n">
+        <v>333.98</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>09:00:18</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-04.xlsx
+++ b/datos_dropcontrol/2025-08-04.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45873.37521892216</v>
+        <v>45873.37521892361</v>
       </c>
       <c r="B3" t="n">
         <v>2025</v>
@@ -558,6 +558,42 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>09:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45873.41691728914</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>83.41</v>
+      </c>
+      <c r="F4" t="n">
+        <v>472.85</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>10:00:21</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-04.xlsx
+++ b/datos_dropcontrol/2025-08-04.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45873.41691728914</v>
+        <v>45873.41691729167</v>
       </c>
       <c r="B4" t="n">
         <v>2025</v>
@@ -594,6 +594,42 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>10:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45873.50022492938</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>631.05</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>12:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-04.xlsx
+++ b/datos_dropcontrol/2025-08-04.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,7 +599,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45873.50022492938</v>
+        <v>45873.50022493055</v>
       </c>
       <c r="B5" t="n">
         <v>2025</v>
@@ -630,6 +630,42 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>12:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45873.5419174335</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="E6" t="n">
+        <v>75.47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>620.51</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>13:00:21</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-04.xlsx
+++ b/datos_dropcontrol/2025-08-04.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45873.5419174335</v>
+        <v>45873.54191743056</v>
       </c>
       <c r="B6" t="n">
         <v>2025</v>
@@ -666,6 +666,42 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>13:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45873.58364391277</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="E7" t="n">
+        <v>75.84</v>
+      </c>
+      <c r="F7" t="n">
+        <v>68.55</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>14:00:26</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-04.xlsx
+++ b/datos_dropcontrol/2025-08-04.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,7 +671,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45873.58364391277</v>
+        <v>45873.58364391204</v>
       </c>
       <c r="B7" t="n">
         <v>2025</v>
@@ -702,6 +702,42 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>14:00:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45873.62529006821</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="E8" t="n">
+        <v>74.34999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>493.95</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>15:00:25</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-04.xlsx
+++ b/datos_dropcontrol/2025-08-04.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45873.62529006821</v>
+        <v>45873.62529006945</v>
       </c>
       <c r="B8" t="n">
         <v>2025</v>
@@ -738,6 +738,42 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>15:00:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45873.70865909853</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>76.20999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>17:00:28</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-04.xlsx
+++ b/datos_dropcontrol/2025-08-04.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,7 +743,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45873.70865909853</v>
+        <v>45873.70865909722</v>
       </c>
       <c r="B9" t="n">
         <v>2025</v>
@@ -774,6 +774,42 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>17:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45873.75021946881</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="E10" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>18:00:18</t>
         </is>
       </c>
     </row>
